--- a/gbassemblies_mapping_to_sraxml.xlsx
+++ b/gbassemblies_mapping_to_sraxml.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">SRA assembly  field</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">FIX_ME </t>
+  </si>
+  <si>
     <t xml:space="preserve">accession</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">SAMPLE_ATTRIBUTE host</t>
   </si>
   <si>
+    <t xml:space="preserve">showing all host species, sex and age, we should split, for now I will correct for Sabela, but Mau or myself could try fix this later</t>
+  </si>
+  <si>
     <t xml:space="preserve">db_xref</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">We are currently not showing this one, but extracting to info field</t>
   </si>
   <si>
+    <t xml:space="preserve">this is not showing the intended stuff</t>
+  </si>
+  <si>
     <t xml:space="preserve">country</t>
   </si>
   <si>
@@ -116,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">Here people are adding platform (eg. ILLUMINA) as attribute name for  PLATFORM and within this PLATFORM object there is an the object INSTRUMENT MODEL (eg. MiSeq) but maybe we can add the this value from Genebank in one place as it includes both platform and instrument model and we can split them later (Sabela, I tell her how) into the two values for Beacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not here, now showing empty</t>
   </si>
   <si>
     <t xml:space="preserve">NOTE</t>
@@ -131,11 +146,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -155,8 +171,39 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,11 +267,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,10 +315,10 @@
   <dimension ref="A1:BL18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.27"/>
@@ -267,199 +334,345 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
